--- a/src/main/resources/EdAsStExample.xlsx
+++ b/src/main/resources/EdAsStExample.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Software\Trash\IntelliJ IDEA 2020.3.2\workspace\SLDocs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Software\Trash\IntelliJ IDEA 2020.3.2\workspace\SLDocs\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DEA176B8-CAED-42A3-8B5C-BA56C5018E83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49F7DC39-CBC3-4E90-92E1-1E1388840D4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="930" yWindow="2685" windowWidth="21600" windowHeight="11385" tabRatio="924" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="924" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Осінь 1-3" sheetId="28" r:id="rId1"/>
@@ -951,8 +951,8 @@
   </sheetPr>
   <dimension ref="A1:S22"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="F214" sqref="F214"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -1211,7 +1211,7 @@
   <dimension ref="A1:K71"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C76" sqref="C76"/>
+      <selection activeCell="B5" sqref="B5:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1680,7 +1680,7 @@
   <dimension ref="A1:S22"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+      <selection activeCell="B5" sqref="B5:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -1938,8 +1938,8 @@
   </sheetPr>
   <dimension ref="A1:K71"/>
   <sheetViews>
-    <sheetView topLeftCell="A54" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G74" sqref="G74"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -2407,8 +2407,8 @@
   </sheetPr>
   <dimension ref="A1:S11"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -2664,8 +2664,8 @@
   </sheetPr>
   <dimension ref="A1:H95"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C48" sqref="C48"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -3197,7 +3197,7 @@
   <dimension ref="A1:S22"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="B5" sqref="B5:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -3455,8 +3455,8 @@
   </sheetPr>
   <dimension ref="A1:K73"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>

--- a/src/main/resources/EdAsStExample.xlsx
+++ b/src/main/resources/EdAsStExample.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20827"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Software\Trash\IntelliJ IDEA 2020.3.2\workspace\SLDocs\src\main\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IDEA\Idea Projects\sldocs\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49F7DC39-CBC3-4E90-92E1-1E1388840D4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{045A2D54-B373-4B91-A6A8-FC6D398A033F}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="924" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="924" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Осінь 1-3" sheetId="28" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="30">
   <si>
     <t xml:space="preserve">                        Міністерство освіти і науки  України</t>
   </si>
@@ -46,19 +46,6 @@
   </si>
   <si>
     <t>Національний технічний університет "ХПІ"</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">за кафедрою </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="18"/>
-        <rFont val="Times New Roman Cyr"/>
-      </rPr>
-      <t>ПРОГРАМНОЇ ІНЖЕНЕРІЇ ТА ІНФОРМАЦІЙНИХ ТЕХНОЛОГІЙ УПРАВЛІННЯ</t>
-    </r>
   </si>
   <si>
     <t>№ з/п</t>
@@ -134,6 +121,22 @@
   </si>
   <si>
     <t>Весна 6 курс</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">за кафедрою </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <rFont val="Times New Roman Cyr"/>
+      </rPr>
+      <t>ПРОГРАМНОЇ ІНЖЕНЕРІЇ ТА ІНТЕЛЕКТУАЛЬНИХ ТЕХНОЛОГІЙ УПРАВЛІННЯ</t>
+    </r>
+  </si>
+  <si>
+    <t>за кафедрою ПРОГРАМНОЇ ІНЖЕНЕРІЇ ТА ІНТЕЛЕКТУАЛЬНИХ ТЕХНОЛОГІЙ УПРАВЛІННЯ</t>
   </si>
 </sst>
 </file>
@@ -951,8 +954,8 @@
   </sheetPr>
   <dimension ref="A1:S22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:B6"/>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -970,7 +973,7 @@
   <sheetData>
     <row r="1" spans="1:19" s="1" customFormat="1" ht="22.5" customHeight="1">
       <c r="A1" s="36" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B1" s="37"/>
       <c r="C1" s="37"/>
@@ -979,7 +982,7 @@
       <c r="F1" s="37"/>
       <c r="G1" s="37"/>
       <c r="H1" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I1" s="15"/>
       <c r="J1" s="15"/>
@@ -1018,7 +1021,7 @@
     </row>
     <row r="3" spans="1:19" s="1" customFormat="1" ht="23.25" customHeight="1">
       <c r="A3" s="38" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B3" s="38"/>
       <c r="C3" s="38"/>
@@ -1041,7 +1044,7 @@
     </row>
     <row r="4" spans="1:19" s="1" customFormat="1" ht="21" customHeight="1" thickBot="1">
       <c r="A4" s="39" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="B4" s="39"/>
       <c r="C4" s="39"/>
@@ -1064,24 +1067,24 @@
     </row>
     <row r="5" spans="1:19" s="3" customFormat="1" ht="19.5" customHeight="1">
       <c r="A5" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="42" t="s">
+      <c r="C5" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="40" t="s">
+      <c r="D5" s="44" t="s">
         <v>6</v>
-      </c>
-      <c r="D5" s="44" t="s">
-        <v>7</v>
       </c>
       <c r="E5" s="45"/>
       <c r="F5" s="45"/>
       <c r="G5" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" s="40" t="s">
         <v>8</v>
-      </c>
-      <c r="H5" s="40" t="s">
-        <v>9</v>
       </c>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
@@ -1100,13 +1103,13 @@
       <c r="B6" s="43"/>
       <c r="C6" s="41"/>
       <c r="D6" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="32" t="s">
+      <c r="F6" s="33" t="s">
         <v>11</v>
-      </c>
-      <c r="F6" s="33" t="s">
-        <v>12</v>
       </c>
       <c r="G6" s="41"/>
       <c r="H6" s="41"/>
@@ -1131,7 +1134,7 @@
       <c r="F7" s="16"/>
       <c r="G7" s="19"/>
       <c r="H7" s="34" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:19" ht="15.75">
@@ -1143,7 +1146,7 @@
       <c r="F8" s="16"/>
       <c r="G8" s="19"/>
       <c r="H8" s="35" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:19" ht="15.75">
@@ -1155,7 +1158,7 @@
       <c r="F9" s="16"/>
       <c r="G9" s="19"/>
       <c r="H9" s="35" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:19" ht="15.75">
@@ -1167,7 +1170,7 @@
       <c r="F10" s="16"/>
       <c r="G10" s="19"/>
       <c r="H10" s="35" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:19" ht="15.75">
@@ -1179,7 +1182,7 @@
       <c r="F11" s="16"/>
       <c r="G11" s="19"/>
       <c r="H11" s="35" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" ht="22.5" customHeight="1"/>
@@ -1210,8 +1213,8 @@
   </sheetPr>
   <dimension ref="A1:K71"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:B6"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1226,7 +1229,7 @@
   <sheetData>
     <row r="1" spans="1:8" s="6" customFormat="1" ht="18.75">
       <c r="A1" s="36" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B1" s="37"/>
       <c r="C1" s="37"/>
@@ -1235,7 +1238,7 @@
       <c r="F1" s="37"/>
       <c r="G1" s="37"/>
       <c r="H1" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="6" customFormat="1" ht="18.75">
@@ -1252,7 +1255,7 @@
     </row>
     <row r="3" spans="1:8" s="6" customFormat="1" ht="23.25" customHeight="1">
       <c r="A3" s="38" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B3" s="38"/>
       <c r="C3" s="38"/>
@@ -1264,7 +1267,7 @@
     </row>
     <row r="4" spans="1:8" s="6" customFormat="1" ht="23.25" thickBot="1">
       <c r="A4" s="39" t="s">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="B4" s="39"/>
       <c r="C4" s="39"/>
@@ -1276,24 +1279,24 @@
     </row>
     <row r="5" spans="1:8" s="7" customFormat="1" ht="19.5" customHeight="1">
       <c r="A5" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="48" t="s">
+      <c r="C5" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="50" t="s">
+      <c r="D5" s="52" t="s">
         <v>6</v>
-      </c>
-      <c r="D5" s="52" t="s">
-        <v>7</v>
       </c>
       <c r="E5" s="53"/>
       <c r="F5" s="53"/>
       <c r="G5" s="50" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" s="54" t="s">
         <v>8</v>
-      </c>
-      <c r="H5" s="54" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:8" s="7" customFormat="1" ht="42.75" customHeight="1">
@@ -1301,13 +1304,13 @@
       <c r="B6" s="49"/>
       <c r="C6" s="51"/>
       <c r="D6" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="13" t="s">
-        <v>11</v>
-      </c>
       <c r="F6" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G6" s="51"/>
       <c r="H6" s="55"/>
@@ -1321,7 +1324,7 @@
       <c r="F7" s="16"/>
       <c r="G7" s="19"/>
       <c r="H7" s="24" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:8" s="6" customFormat="1" ht="15.75">
@@ -1333,7 +1336,7 @@
       <c r="F8" s="16"/>
       <c r="G8" s="19"/>
       <c r="H8" s="25" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:8" s="6" customFormat="1" ht="15.75">
@@ -1345,7 +1348,7 @@
       <c r="F9" s="16"/>
       <c r="G9" s="19"/>
       <c r="H9" s="25" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:8" s="6" customFormat="1" ht="15.75">
@@ -1357,7 +1360,7 @@
       <c r="F10" s="16"/>
       <c r="G10" s="19"/>
       <c r="H10" s="25" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:8" s="6" customFormat="1" ht="15.75">
@@ -1369,7 +1372,7 @@
       <c r="F11" s="16"/>
       <c r="G11" s="19"/>
       <c r="H11" s="25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:8" s="6" customFormat="1">
@@ -1679,8 +1682,8 @@
   </sheetPr>
   <dimension ref="A1:S22"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:B6"/>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -1698,7 +1701,7 @@
   <sheetData>
     <row r="1" spans="1:19" s="1" customFormat="1" ht="22.5" customHeight="1">
       <c r="A1" s="36" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B1" s="37"/>
       <c r="C1" s="37"/>
@@ -1707,7 +1710,7 @@
       <c r="F1" s="37"/>
       <c r="G1" s="37"/>
       <c r="H1" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I1" s="27"/>
       <c r="J1" s="27"/>
@@ -1746,7 +1749,7 @@
     </row>
     <row r="3" spans="1:19" s="1" customFormat="1" ht="23.25" customHeight="1">
       <c r="A3" s="38" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B3" s="38"/>
       <c r="C3" s="38"/>
@@ -1769,7 +1772,7 @@
     </row>
     <row r="4" spans="1:19" s="1" customFormat="1" ht="21" customHeight="1" thickBot="1">
       <c r="A4" s="39" t="s">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="B4" s="39"/>
       <c r="C4" s="39"/>
@@ -1792,24 +1795,24 @@
     </row>
     <row r="5" spans="1:19" s="3" customFormat="1" ht="19.5" customHeight="1">
       <c r="A5" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="42" t="s">
+      <c r="C5" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="40" t="s">
+      <c r="D5" s="44" t="s">
         <v>6</v>
-      </c>
-      <c r="D5" s="44" t="s">
-        <v>7</v>
       </c>
       <c r="E5" s="45"/>
       <c r="F5" s="45"/>
       <c r="G5" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" s="40" t="s">
         <v>8</v>
-      </c>
-      <c r="H5" s="40" t="s">
-        <v>9</v>
       </c>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
@@ -1828,13 +1831,13 @@
       <c r="B6" s="43"/>
       <c r="C6" s="41"/>
       <c r="D6" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="32" t="s">
+      <c r="F6" s="33" t="s">
         <v>11</v>
-      </c>
-      <c r="F6" s="33" t="s">
-        <v>12</v>
       </c>
       <c r="G6" s="41"/>
       <c r="H6" s="41"/>
@@ -1859,7 +1862,7 @@
       <c r="F7" s="16"/>
       <c r="G7" s="19"/>
       <c r="H7" s="34" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:19" ht="15.75">
@@ -1871,7 +1874,7 @@
       <c r="F8" s="16"/>
       <c r="G8" s="19"/>
       <c r="H8" s="35" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:19" ht="15.75">
@@ -1883,7 +1886,7 @@
       <c r="F9" s="16"/>
       <c r="G9" s="19"/>
       <c r="H9" s="35" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:19" ht="15.75">
@@ -1895,7 +1898,7 @@
       <c r="F10" s="16"/>
       <c r="G10" s="19"/>
       <c r="H10" s="35" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:19" ht="15.75">
@@ -1907,7 +1910,7 @@
       <c r="F11" s="16"/>
       <c r="G11" s="19"/>
       <c r="H11" s="35" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" ht="22.5" customHeight="1"/>
@@ -1938,8 +1941,8 @@
   </sheetPr>
   <dimension ref="A1:K71"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:B6"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1954,7 +1957,7 @@
   <sheetData>
     <row r="1" spans="1:8" s="6" customFormat="1" ht="18.75">
       <c r="A1" s="36" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B1" s="37"/>
       <c r="C1" s="37"/>
@@ -1963,7 +1966,7 @@
       <c r="F1" s="37"/>
       <c r="G1" s="37"/>
       <c r="H1" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="6" customFormat="1" ht="18.75">
@@ -1980,7 +1983,7 @@
     </row>
     <row r="3" spans="1:8" s="6" customFormat="1" ht="23.25" customHeight="1">
       <c r="A3" s="38" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B3" s="38"/>
       <c r="C3" s="38"/>
@@ -1992,7 +1995,7 @@
     </row>
     <row r="4" spans="1:8" s="6" customFormat="1" ht="23.25" thickBot="1">
       <c r="A4" s="39" t="s">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="B4" s="39"/>
       <c r="C4" s="39"/>
@@ -2004,24 +2007,24 @@
     </row>
     <row r="5" spans="1:8" s="7" customFormat="1" ht="19.5" customHeight="1">
       <c r="A5" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="48" t="s">
+      <c r="C5" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="50" t="s">
+      <c r="D5" s="52" t="s">
         <v>6</v>
-      </c>
-      <c r="D5" s="52" t="s">
-        <v>7</v>
       </c>
       <c r="E5" s="53"/>
       <c r="F5" s="53"/>
       <c r="G5" s="50" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" s="54" t="s">
         <v>8</v>
-      </c>
-      <c r="H5" s="54" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:8" s="7" customFormat="1" ht="42.75" customHeight="1">
@@ -2029,13 +2032,13 @@
       <c r="B6" s="49"/>
       <c r="C6" s="51"/>
       <c r="D6" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="13" t="s">
-        <v>11</v>
-      </c>
       <c r="F6" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G6" s="51"/>
       <c r="H6" s="55"/>
@@ -2049,7 +2052,7 @@
       <c r="F7" s="16"/>
       <c r="G7" s="19"/>
       <c r="H7" s="24" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:8" s="6" customFormat="1" ht="15.75">
@@ -2061,7 +2064,7 @@
       <c r="F8" s="16"/>
       <c r="G8" s="19"/>
       <c r="H8" s="25" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:8" s="6" customFormat="1" ht="15.75">
@@ -2073,7 +2076,7 @@
       <c r="F9" s="16"/>
       <c r="G9" s="19"/>
       <c r="H9" s="25" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:8" s="6" customFormat="1" ht="15.75">
@@ -2085,7 +2088,7 @@
       <c r="F10" s="16"/>
       <c r="G10" s="19"/>
       <c r="H10" s="25" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:8" s="6" customFormat="1" ht="15.75">
@@ -2097,7 +2100,7 @@
       <c r="F11" s="16"/>
       <c r="G11" s="19"/>
       <c r="H11" s="25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:8" s="6" customFormat="1">
@@ -2407,8 +2410,8 @@
   </sheetPr>
   <dimension ref="A1:S11"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:B6"/>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -2474,7 +2477,7 @@
     </row>
     <row r="3" spans="1:19" s="1" customFormat="1" ht="30">
       <c r="A3" s="38" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B3" s="38"/>
       <c r="C3" s="38"/>
@@ -2497,7 +2500,7 @@
     </row>
     <row r="4" spans="1:19" s="1" customFormat="1" ht="23.25" thickBot="1">
       <c r="A4" s="39" t="s">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="B4" s="39"/>
       <c r="C4" s="39"/>
@@ -2520,24 +2523,24 @@
     </row>
     <row r="5" spans="1:19" s="3" customFormat="1" ht="15.75">
       <c r="A5" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="56" t="s">
+      <c r="C5" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="50" t="s">
+      <c r="D5" s="52" t="s">
         <v>6</v>
-      </c>
-      <c r="D5" s="52" t="s">
-        <v>7</v>
       </c>
       <c r="E5" s="53"/>
       <c r="F5" s="53"/>
       <c r="G5" s="50" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" s="50" t="s">
         <v>8</v>
-      </c>
-      <c r="H5" s="50" t="s">
-        <v>9</v>
       </c>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
@@ -2556,13 +2559,13 @@
       <c r="B6" s="57"/>
       <c r="C6" s="51"/>
       <c r="D6" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="F6" s="10" t="s">
         <v>11</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>12</v>
       </c>
       <c r="G6" s="51"/>
       <c r="H6" s="51"/>
@@ -2587,7 +2590,7 @@
       <c r="F7" s="22"/>
       <c r="G7" s="23"/>
       <c r="H7" s="24" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:19" ht="15.75">
@@ -2599,7 +2602,7 @@
       <c r="F8" s="22"/>
       <c r="G8" s="23"/>
       <c r="H8" s="25" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:19" ht="15.75">
@@ -2611,7 +2614,7 @@
       <c r="F9" s="22"/>
       <c r="G9" s="23"/>
       <c r="H9" s="25" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:19" ht="15.75">
@@ -2623,7 +2626,7 @@
       <c r="F10" s="22"/>
       <c r="G10" s="23"/>
       <c r="H10" s="25" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:19" ht="15.75">
@@ -2635,7 +2638,7 @@
       <c r="F11" s="22"/>
       <c r="G11" s="23"/>
       <c r="H11" s="25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -2665,7 +2668,7 @@
   <dimension ref="A1:H95"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:B6"/>
+      <selection activeCell="A4" sqref="A4:H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -2680,7 +2683,7 @@
   <sheetData>
     <row r="1" spans="1:8" s="6" customFormat="1" ht="18.75">
       <c r="A1" s="36" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B1" s="37"/>
       <c r="C1" s="37"/>
@@ -2689,7 +2692,7 @@
       <c r="F1" s="37"/>
       <c r="G1" s="37"/>
       <c r="H1" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="6" customFormat="1" ht="18.75">
@@ -2706,7 +2709,7 @@
     </row>
     <row r="3" spans="1:8" s="6" customFormat="1" ht="23.25" customHeight="1">
       <c r="A3" s="38" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B3" s="38"/>
       <c r="C3" s="38"/>
@@ -2718,7 +2721,7 @@
     </row>
     <row r="4" spans="1:8" s="6" customFormat="1" ht="23.25" thickBot="1">
       <c r="A4" s="39" t="s">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="B4" s="39"/>
       <c r="C4" s="39"/>
@@ -2730,24 +2733,24 @@
     </row>
     <row r="5" spans="1:8" s="7" customFormat="1" ht="19.5" customHeight="1">
       <c r="A5" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="48" t="s">
+      <c r="C5" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="50" t="s">
+      <c r="D5" s="52" t="s">
         <v>6</v>
-      </c>
-      <c r="D5" s="52" t="s">
-        <v>7</v>
       </c>
       <c r="E5" s="53"/>
       <c r="F5" s="53"/>
       <c r="G5" s="50" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" s="54" t="s">
         <v>8</v>
-      </c>
-      <c r="H5" s="54" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:8" s="7" customFormat="1" ht="42.75" customHeight="1">
@@ -2755,13 +2758,13 @@
       <c r="B6" s="49"/>
       <c r="C6" s="51"/>
       <c r="D6" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="13" t="s">
-        <v>11</v>
-      </c>
       <c r="F6" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G6" s="51"/>
       <c r="H6" s="55"/>
@@ -2775,7 +2778,7 @@
       <c r="F7" s="22"/>
       <c r="G7" s="23"/>
       <c r="H7" s="24" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:8" s="6" customFormat="1" ht="15.75">
@@ -2787,7 +2790,7 @@
       <c r="F8" s="22"/>
       <c r="G8" s="23"/>
       <c r="H8" s="25" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:8" s="6" customFormat="1" ht="15.75">
@@ -2799,7 +2802,7 @@
       <c r="F9" s="22"/>
       <c r="G9" s="23"/>
       <c r="H9" s="25" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:8" s="6" customFormat="1" ht="15.75">
@@ -2811,7 +2814,7 @@
       <c r="F10" s="22"/>
       <c r="G10" s="23"/>
       <c r="H10" s="25" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:8" s="6" customFormat="1" ht="15.75">
@@ -2823,7 +2826,7 @@
       <c r="F11" s="22"/>
       <c r="G11" s="23"/>
       <c r="H11" s="25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:8" s="6" customFormat="1">
@@ -3167,7 +3170,7 @@
     </row>
     <row r="95" spans="3:3">
       <c r="C95" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -3196,8 +3199,8 @@
   </sheetPr>
   <dimension ref="A1:S22"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:B6"/>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -3215,7 +3218,7 @@
   <sheetData>
     <row r="1" spans="1:19" s="1" customFormat="1" ht="22.5" customHeight="1">
       <c r="A1" s="36" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B1" s="37"/>
       <c r="C1" s="37"/>
@@ -3224,7 +3227,7 @@
       <c r="F1" s="37"/>
       <c r="G1" s="37"/>
       <c r="H1" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I1" s="27"/>
       <c r="J1" s="27"/>
@@ -3263,7 +3266,7 @@
     </row>
     <row r="3" spans="1:19" s="1" customFormat="1" ht="23.25" customHeight="1">
       <c r="A3" s="38" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B3" s="38"/>
       <c r="C3" s="38"/>
@@ -3286,7 +3289,7 @@
     </row>
     <row r="4" spans="1:19" s="1" customFormat="1" ht="21" customHeight="1" thickBot="1">
       <c r="A4" s="39" t="s">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="B4" s="39"/>
       <c r="C4" s="39"/>
@@ -3309,24 +3312,24 @@
     </row>
     <row r="5" spans="1:19" s="3" customFormat="1" ht="19.5" customHeight="1">
       <c r="A5" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="42" t="s">
+      <c r="C5" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="40" t="s">
+      <c r="D5" s="44" t="s">
         <v>6</v>
-      </c>
-      <c r="D5" s="44" t="s">
-        <v>7</v>
       </c>
       <c r="E5" s="45"/>
       <c r="F5" s="45"/>
       <c r="G5" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" s="40" t="s">
         <v>8</v>
-      </c>
-      <c r="H5" s="40" t="s">
-        <v>9</v>
       </c>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
@@ -3345,13 +3348,13 @@
       <c r="B6" s="43"/>
       <c r="C6" s="41"/>
       <c r="D6" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="32" t="s">
+      <c r="F6" s="33" t="s">
         <v>11</v>
-      </c>
-      <c r="F6" s="33" t="s">
-        <v>12</v>
       </c>
       <c r="G6" s="41"/>
       <c r="H6" s="41"/>
@@ -3376,7 +3379,7 @@
       <c r="F7" s="16"/>
       <c r="G7" s="19"/>
       <c r="H7" s="34" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:19" ht="15.75">
@@ -3388,7 +3391,7 @@
       <c r="F8" s="16"/>
       <c r="G8" s="19"/>
       <c r="H8" s="35" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:19" ht="15.75">
@@ -3400,7 +3403,7 @@
       <c r="F9" s="16"/>
       <c r="G9" s="19"/>
       <c r="H9" s="35" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:19" ht="15.75">
@@ -3412,7 +3415,7 @@
       <c r="F10" s="16"/>
       <c r="G10" s="19"/>
       <c r="H10" s="35" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:19" ht="15.75">
@@ -3424,7 +3427,7 @@
       <c r="F11" s="16"/>
       <c r="G11" s="19"/>
       <c r="H11" s="35" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" ht="22.5" customHeight="1"/>
@@ -3455,8 +3458,8 @@
   </sheetPr>
   <dimension ref="A1:K73"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:B6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -3471,7 +3474,7 @@
   <sheetData>
     <row r="1" spans="1:8" s="6" customFormat="1" ht="18.75">
       <c r="A1" s="36" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B1" s="37"/>
       <c r="C1" s="37"/>
@@ -3480,7 +3483,7 @@
       <c r="F1" s="37"/>
       <c r="G1" s="37"/>
       <c r="H1" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="6" customFormat="1" ht="18.75">
@@ -3497,7 +3500,7 @@
     </row>
     <row r="3" spans="1:8" s="6" customFormat="1" ht="23.25" customHeight="1">
       <c r="A3" s="38" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B3" s="38"/>
       <c r="C3" s="38"/>
@@ -3509,7 +3512,7 @@
     </row>
     <row r="4" spans="1:8" s="6" customFormat="1" ht="23.25" thickBot="1">
       <c r="A4" s="39" t="s">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="B4" s="39"/>
       <c r="C4" s="39"/>
@@ -3521,24 +3524,24 @@
     </row>
     <row r="5" spans="1:8" s="7" customFormat="1" ht="19.5" customHeight="1">
       <c r="A5" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="48" t="s">
+      <c r="C5" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="50" t="s">
+      <c r="D5" s="52" t="s">
         <v>6</v>
-      </c>
-      <c r="D5" s="52" t="s">
-        <v>7</v>
       </c>
       <c r="E5" s="53"/>
       <c r="F5" s="53"/>
       <c r="G5" s="50" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" s="54" t="s">
         <v>8</v>
-      </c>
-      <c r="H5" s="54" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:8" s="7" customFormat="1" ht="42.75" customHeight="1">
@@ -3546,13 +3549,13 @@
       <c r="B6" s="49"/>
       <c r="C6" s="51"/>
       <c r="D6" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="13" t="s">
-        <v>11</v>
-      </c>
       <c r="F6" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G6" s="51"/>
       <c r="H6" s="55"/>
@@ -3566,7 +3569,7 @@
       <c r="F7" s="16"/>
       <c r="G7" s="19"/>
       <c r="H7" s="24" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:8" s="6" customFormat="1" ht="15.75">
@@ -3578,7 +3581,7 @@
       <c r="F8" s="16"/>
       <c r="G8" s="19"/>
       <c r="H8" s="25" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:8" s="6" customFormat="1" ht="15.75">
@@ -3590,7 +3593,7 @@
       <c r="F9" s="16"/>
       <c r="G9" s="19"/>
       <c r="H9" s="25" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:8" s="6" customFormat="1" ht="15.75">
@@ -3602,7 +3605,7 @@
       <c r="F10" s="16"/>
       <c r="G10" s="19"/>
       <c r="H10" s="25" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:8" s="6" customFormat="1" ht="15.75">
@@ -3614,7 +3617,7 @@
       <c r="F11" s="16"/>
       <c r="G11" s="19"/>
       <c r="H11" s="25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:8" s="6" customFormat="1"/>

--- a/src/main/resources/EdAsStExample.xlsx
+++ b/src/main/resources/EdAsStExample.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IDEA\Idea Projects\sldocs\src\main\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SLDOCS2023\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{045A2D54-B373-4B91-A6A8-FC6D398A033F}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="924" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="924" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Осінь 1-3" sheetId="28" r:id="rId1"/>
@@ -32,15 +31,12 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="2">'Осінь 5'!$5:$6</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="3">'Осінь 6'!$5:$6</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="30">
-  <si>
-    <t xml:space="preserve">                        Міністерство освіти і науки  України</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="32">
   <si>
     <t>Весна 1-3 курс</t>
   </si>
@@ -78,9 +74,6 @@
     <t>засідання кафедри та науково-</t>
   </si>
   <si>
-    <t xml:space="preserve">                    Міністерство освіти і науки  України</t>
-  </si>
-  <si>
     <t>Весна 4 курс</t>
   </si>
   <si>
@@ -94,9 +87,6 @@
   </si>
   <si>
     <t>Осінь 4 курс</t>
-  </si>
-  <si>
-    <t>Відомість навчальних доручень на  2021-2022 навчальний рік</t>
   </si>
   <si>
     <t xml:space="preserve">Прохання не планувати заняття </t>
@@ -138,21 +128,30 @@
   <si>
     <t>за кафедрою ПРОГРАМНОЇ ІНЖЕНЕРІЇ ТА ІНТЕЛЕКТУАЛЬНИХ ТЕХНОЛОГІЙ УПРАВЛІННЯ</t>
   </si>
+  <si>
+    <t>Відомість навчальних доручень на  2022-2023 навчальний рік</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                         Міністерство освіти і науки  України</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                           Міністерство освіти і науки  України</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                       Міністерство освіти і науки  України</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                        Міністерство освіти і науки  України</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="14">
     <font>
       <sz val="10"/>
       <name val="Arial Cyr"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <name val="Courier New Cyr"/>
-      <family val="3"/>
       <charset val="204"/>
     </font>
     <font>
@@ -193,12 +192,6 @@
       <name val="Times New Roman Cyr"/>
     </font>
     <font>
-      <sz val="11"/>
-      <name val="Times New Roman Cyr"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <name val="Times New Roman Cyr"/>
@@ -226,6 +219,18 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -241,7 +246,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -265,67 +270,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="medium">
         <color indexed="64"/>
@@ -339,56 +283,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -401,39 +300,26 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="64"/>
       </left>
       <right/>
-      <top style="thin">
+      <top/>
+      <bottom style="thin">
         <color indexed="64"/>
-      </top>
-      <bottom/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
+      <right style="thin">
         <color indexed="64"/>
       </right>
       <top/>
@@ -445,175 +331,146 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="Обычный 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный 2" xfId="1"/>
+    <cellStyle name="Обычный 3" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -629,9 +486,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -669,7 +526,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
         <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -704,23 +561,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -756,26 +596,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -948,241 +771,241 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:S22"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="4.5703125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="45.85546875" style="5" customWidth="1"/>
-    <col min="3" max="3" width="29.7109375" style="5" customWidth="1"/>
-    <col min="4" max="4" width="8.42578125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="8.7109375" style="5" customWidth="1"/>
-    <col min="6" max="6" width="8.42578125" style="5" customWidth="1"/>
+    <col min="1" max="1" width="4.5546875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="45.88671875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="31.33203125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="9.88671875" style="5" customWidth="1"/>
+    <col min="5" max="5" width="9.77734375" style="5" customWidth="1"/>
+    <col min="6" max="6" width="10.21875" style="5" customWidth="1"/>
     <col min="7" max="7" width="46" style="5" customWidth="1"/>
-    <col min="8" max="8" width="38.42578125" style="5" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="5"/>
+    <col min="8" max="8" width="38.44140625" style="5" customWidth="1"/>
+    <col min="9" max="16384" width="9.109375" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="1" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A1" s="36" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
+      <c r="A1" s="42" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
       <c r="H1" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="11"/>
+      <c r="P1" s="11"/>
+      <c r="Q1" s="11"/>
+      <c r="R1" s="11"/>
+      <c r="S1" s="11"/>
+    </row>
+    <row r="2" spans="1:19" s="1" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A2" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="11"/>
+      <c r="O2" s="11"/>
+      <c r="P2" s="11"/>
+      <c r="Q2" s="11"/>
+      <c r="R2" s="11"/>
+      <c r="S2" s="11"/>
+    </row>
+    <row r="3" spans="1:19" s="1" customFormat="1" ht="23.25" customHeight="1">
+      <c r="A3" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="11"/>
+      <c r="P3" s="11"/>
+      <c r="Q3" s="11"/>
+      <c r="R3" s="11"/>
+      <c r="S3" s="11"/>
+    </row>
+    <row r="4" spans="1:19" s="1" customFormat="1" ht="21" customHeight="1">
+      <c r="A4" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="11"/>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="11"/>
+      <c r="R4" s="11"/>
+      <c r="S4" s="11"/>
+    </row>
+    <row r="5" spans="1:19" s="41" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A5" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="H5" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="I5" s="40"/>
+      <c r="J5" s="40"/>
+      <c r="K5" s="40"/>
+      <c r="L5" s="40"/>
+      <c r="M5" s="40"/>
+      <c r="N5" s="40"/>
+      <c r="O5" s="40"/>
+      <c r="P5" s="40"/>
+      <c r="Q5" s="40"/>
+      <c r="R5" s="40"/>
+      <c r="S5" s="40"/>
+    </row>
+    <row r="6" spans="1:19" s="41" customFormat="1" ht="33" customHeight="1">
+      <c r="A6" s="36"/>
+      <c r="B6" s="37"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="36"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="40"/>
+      <c r="J6" s="40"/>
+      <c r="K6" s="40"/>
+      <c r="L6" s="40"/>
+      <c r="M6" s="40"/>
+      <c r="N6" s="40"/>
+      <c r="O6" s="40"/>
+      <c r="P6" s="40"/>
+      <c r="Q6" s="40"/>
+      <c r="R6" s="40"/>
+      <c r="S6" s="40"/>
+    </row>
+    <row r="7" spans="1:19" ht="15.6">
+      <c r="A7" s="34"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
-      <c r="O1" s="15"/>
-      <c r="P1" s="15"/>
-      <c r="Q1" s="15"/>
-      <c r="R1" s="15"/>
-      <c r="S1" s="15"/>
-    </row>
-    <row r="2" spans="1:19" s="1" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A2" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15"/>
-      <c r="N2" s="15"/>
-      <c r="O2" s="15"/>
-      <c r="P2" s="15"/>
-      <c r="Q2" s="15"/>
-      <c r="R2" s="15"/>
-      <c r="S2" s="15"/>
-    </row>
-    <row r="3" spans="1:19" s="1" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A3" s="38" t="s">
+    </row>
+    <row r="8" spans="1:19" ht="15.6">
+      <c r="A8" s="16"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="26" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" ht="15.6">
+      <c r="A9" s="16"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="38"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15"/>
-      <c r="L3" s="15"/>
-      <c r="M3" s="15"/>
-      <c r="N3" s="15"/>
-      <c r="O3" s="15"/>
-      <c r="P3" s="15"/>
-      <c r="Q3" s="15"/>
-      <c r="R3" s="15"/>
-      <c r="S3" s="15"/>
-    </row>
-    <row r="4" spans="1:19" s="1" customFormat="1" ht="21" customHeight="1" thickBot="1">
-      <c r="A4" s="39" t="s">
-        <v>28</v>
-      </c>
-      <c r="B4" s="39"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
-      <c r="M4" s="15"/>
-      <c r="N4" s="15"/>
-      <c r="O4" s="15"/>
-      <c r="P4" s="15"/>
-      <c r="Q4" s="15"/>
-      <c r="R4" s="15"/>
-      <c r="S4" s="15"/>
-    </row>
-    <row r="5" spans="1:19" s="3" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A5" s="40" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="42" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="40" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="44" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="45"/>
-      <c r="F5" s="45"/>
-      <c r="G5" s="40" t="s">
-        <v>7</v>
-      </c>
-      <c r="H5" s="40" t="s">
-        <v>8</v>
-      </c>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="2"/>
-      <c r="S5" s="2"/>
-    </row>
-    <row r="6" spans="1:19" s="3" customFormat="1" ht="33" customHeight="1">
-      <c r="A6" s="41"/>
-      <c r="B6" s="43"/>
-      <c r="C6" s="41"/>
-      <c r="D6" s="31" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="33" t="s">
+    </row>
+    <row r="10" spans="1:19" ht="15.6">
+      <c r="A10" s="16"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="41"/>
-      <c r="H6" s="41"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="2"/>
-      <c r="S6" s="2"/>
-    </row>
-    <row r="7" spans="1:19" ht="15.75">
-      <c r="A7" s="20"/>
-      <c r="B7" s="17"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="34" t="s">
+    </row>
+    <row r="11" spans="1:19" ht="15.6">
+      <c r="A11" s="16"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="26" t="s">
         <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" ht="15.75">
-      <c r="A8" s="20"/>
-      <c r="B8" s="17"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="35" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" ht="15.75">
-      <c r="A9" s="20"/>
-      <c r="B9" s="17"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="35" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" ht="15.75">
-      <c r="A10" s="20"/>
-      <c r="B10" s="17"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="35" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" ht="15.75">
-      <c r="A11" s="20"/>
-      <c r="B11" s="17"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="35" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="21" ht="22.5" customHeight="1"/>
@@ -1207,172 +1030,174 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:K71"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:H4"/>
+      <selection activeCell="B5" sqref="B5:B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="4.5703125" customWidth="1"/>
-    <col min="2" max="2" width="44.42578125" customWidth="1"/>
-    <col min="3" max="3" width="29.7109375" customWidth="1"/>
-    <col min="4" max="6" width="8.42578125" customWidth="1"/>
-    <col min="7" max="7" width="43.42578125" customWidth="1"/>
-    <col min="8" max="8" width="35.28515625" customWidth="1"/>
+    <col min="1" max="1" width="4.5546875" customWidth="1"/>
+    <col min="2" max="2" width="44.44140625" customWidth="1"/>
+    <col min="3" max="3" width="31.5546875" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" customWidth="1"/>
+    <col min="5" max="5" width="10.44140625" customWidth="1"/>
+    <col min="6" max="6" width="11.44140625" customWidth="1"/>
+    <col min="7" max="7" width="43.44140625" customWidth="1"/>
+    <col min="8" max="8" width="35.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="6" customFormat="1" ht="18.75">
-      <c r="A1" s="36" t="s">
+    <row r="1" spans="1:8" s="6" customFormat="1" ht="19.8" customHeight="1">
+      <c r="A1" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="6" customFormat="1" ht="18">
+      <c r="A2" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+    </row>
+    <row r="3" spans="1:8" s="6" customFormat="1" ht="23.25" customHeight="1">
+      <c r="A3" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+    </row>
+    <row r="4" spans="1:8" s="6" customFormat="1" ht="22.8">
+      <c r="A4" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+    </row>
+    <row r="5" spans="1:8" s="44" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A5" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="H5" s="36" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" s="44" customFormat="1" ht="42.75" customHeight="1">
+      <c r="A6" s="36"/>
+      <c r="B6" s="37"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" s="6" customFormat="1" ht="18.75">
-      <c r="A2" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-    </row>
-    <row r="3" spans="1:8" s="6" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A3" s="38" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="38"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
-    </row>
-    <row r="4" spans="1:8" s="6" customFormat="1" ht="23.25" thickBot="1">
-      <c r="A4" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="B4" s="39"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
-    </row>
-    <row r="5" spans="1:8" s="7" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A5" s="46" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="48" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="52" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="53"/>
-      <c r="F5" s="53"/>
-      <c r="G5" s="50" t="s">
-        <v>7</v>
-      </c>
-      <c r="H5" s="54" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" s="7" customFormat="1" ht="42.75" customHeight="1">
-      <c r="A6" s="47"/>
-      <c r="B6" s="49"/>
-      <c r="C6" s="51"/>
-      <c r="D6" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G6" s="51"/>
-      <c r="H6" s="55"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="36"/>
     </row>
     <row r="7" spans="1:8" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A7" s="4"/>
-      <c r="B7" s="17"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="24" t="s">
+      <c r="B7" s="13"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="45" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" s="6" customFormat="1" ht="15.6">
+      <c r="A8" s="4"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="45" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" s="6" customFormat="1" ht="15.6">
+      <c r="A9" s="4"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="45" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" s="6" customFormat="1" ht="15.6">
+      <c r="A10" s="4"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="45" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" s="6" customFormat="1" ht="15.6">
+      <c r="A11" s="4"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="45" t="s">
         <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" s="6" customFormat="1" ht="15.75">
-      <c r="A8" s="4"/>
-      <c r="B8" s="17"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="25" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" s="6" customFormat="1" ht="15.75">
-      <c r="A9" s="4"/>
-      <c r="B9" s="17"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="25" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" s="6" customFormat="1" ht="15.75">
-      <c r="A10" s="4"/>
-      <c r="B10" s="17"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="25" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" s="6" customFormat="1" ht="15.75">
-      <c r="A11" s="4"/>
-      <c r="B11" s="17"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="25" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:8" s="6" customFormat="1">
@@ -1645,16 +1470,16 @@
       <c r="G38"/>
       <c r="H38"/>
     </row>
-    <row r="40" spans="1:9" ht="15">
-      <c r="I40" s="11"/>
-    </row>
-    <row r="70" spans="9:11" ht="15">
-      <c r="I70" s="11"/>
-      <c r="K70" s="28"/>
-    </row>
-    <row r="71" spans="9:11" ht="15">
-      <c r="I71" s="30"/>
-      <c r="J71" s="29"/>
+    <row r="40" spans="1:9" ht="13.8">
+      <c r="I40" s="9"/>
+    </row>
+    <row r="70" spans="9:11" ht="13.8">
+      <c r="I70" s="9"/>
+      <c r="K70" s="22"/>
+    </row>
+    <row r="71" spans="9:11" ht="13.8">
+      <c r="I71" s="24"/>
+      <c r="J71" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -1676,143 +1501,143 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:S22"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:H4"/>
+      <selection activeCell="C5" sqref="C5:C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="4.5703125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="45.85546875" style="5" customWidth="1"/>
-    <col min="3" max="3" width="29.7109375" style="5" customWidth="1"/>
-    <col min="4" max="4" width="8.42578125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="8.7109375" style="5" customWidth="1"/>
-    <col min="6" max="6" width="8.42578125" style="5" customWidth="1"/>
+    <col min="1" max="1" width="4.5546875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="45.88671875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="31.33203125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="10.21875" style="5" customWidth="1"/>
+    <col min="5" max="5" width="8.6640625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="8.44140625" style="5" customWidth="1"/>
     <col min="7" max="7" width="46" style="5" customWidth="1"/>
-    <col min="8" max="8" width="38.42578125" style="5" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="5"/>
+    <col min="8" max="8" width="38.44140625" style="5" customWidth="1"/>
+    <col min="9" max="16384" width="9.109375" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="1" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A1" s="36" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
+      <c r="A1" s="42" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
       <c r="H1" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27"/>
-      <c r="N1" s="27"/>
-      <c r="O1" s="27"/>
-      <c r="P1" s="27"/>
-      <c r="Q1" s="27"/>
-      <c r="R1" s="27"/>
-      <c r="S1" s="27"/>
-    </row>
-    <row r="2" spans="1:19" s="1" customFormat="1" ht="18.75">
-      <c r="A2" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
+      <c r="O1" s="21"/>
+      <c r="P1" s="21"/>
+      <c r="Q1" s="21"/>
+      <c r="R1" s="21"/>
+      <c r="S1" s="21"/>
+    </row>
+    <row r="2" spans="1:19" s="1" customFormat="1" ht="18">
+      <c r="A2" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="21"/>
+      <c r="O2" s="21"/>
+      <c r="P2" s="21"/>
+      <c r="Q2" s="21"/>
+      <c r="R2" s="21"/>
+      <c r="S2" s="21"/>
+    </row>
+    <row r="3" spans="1:19" s="1" customFormat="1" ht="23.25" customHeight="1">
+      <c r="A3" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="21"/>
+      <c r="N3" s="21"/>
+      <c r="O3" s="21"/>
+      <c r="P3" s="21"/>
+      <c r="Q3" s="21"/>
+      <c r="R3" s="21"/>
+      <c r="S3" s="21"/>
+    </row>
+    <row r="4" spans="1:19" s="1" customFormat="1" ht="21" customHeight="1">
+      <c r="A4" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="21"/>
+      <c r="N4" s="21"/>
+      <c r="O4" s="21"/>
+      <c r="P4" s="21"/>
+      <c r="Q4" s="21"/>
+      <c r="R4" s="21"/>
+      <c r="S4" s="21"/>
+    </row>
+    <row r="5" spans="1:19" s="3" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A5" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="27"/>
-      <c r="M2" s="27"/>
-      <c r="N2" s="27"/>
-      <c r="O2" s="27"/>
-      <c r="P2" s="27"/>
-      <c r="Q2" s="27"/>
-      <c r="R2" s="27"/>
-      <c r="S2" s="27"/>
-    </row>
-    <row r="3" spans="1:19" s="1" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A3" s="38" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="38"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="27"/>
-      <c r="K3" s="27"/>
-      <c r="L3" s="27"/>
-      <c r="M3" s="27"/>
-      <c r="N3" s="27"/>
-      <c r="O3" s="27"/>
-      <c r="P3" s="27"/>
-      <c r="Q3" s="27"/>
-      <c r="R3" s="27"/>
-      <c r="S3" s="27"/>
-    </row>
-    <row r="4" spans="1:19" s="1" customFormat="1" ht="21" customHeight="1" thickBot="1">
-      <c r="A4" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="B4" s="39"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="27"/>
-      <c r="J4" s="27"/>
-      <c r="K4" s="27"/>
-      <c r="L4" s="27"/>
-      <c r="M4" s="27"/>
-      <c r="N4" s="27"/>
-      <c r="O4" s="27"/>
-      <c r="P4" s="27"/>
-      <c r="Q4" s="27"/>
-      <c r="R4" s="27"/>
-      <c r="S4" s="27"/>
-    </row>
-    <row r="5" spans="1:19" s="3" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A5" s="40" t="s">
+      <c r="B5" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="42" t="s">
+      <c r="C5" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="40" t="s">
+      <c r="D5" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="44" t="s">
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="45"/>
-      <c r="F5" s="45"/>
-      <c r="G5" s="40" t="s">
+      <c r="H5" s="36" t="s">
         <v>7</v>
-      </c>
-      <c r="H5" s="40" t="s">
-        <v>8</v>
       </c>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
@@ -1826,21 +1651,21 @@
       <c r="R5" s="2"/>
       <c r="S5" s="2"/>
     </row>
-    <row r="6" spans="1:19" s="3" customFormat="1" ht="33" customHeight="1">
-      <c r="A6" s="41"/>
-      <c r="B6" s="43"/>
-      <c r="C6" s="41"/>
-      <c r="D6" s="31" t="s">
+    <row r="6" spans="1:19" s="3" customFormat="1" ht="42.6" customHeight="1">
+      <c r="A6" s="36"/>
+      <c r="B6" s="37"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" s="41"/>
-      <c r="H6" s="41"/>
+      <c r="F6" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="36"/>
+      <c r="H6" s="36"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
@@ -1853,64 +1678,63 @@
       <c r="R6" s="2"/>
       <c r="S6" s="2"/>
     </row>
-    <row r="7" spans="1:19" ht="15.75">
-      <c r="A7" s="20"/>
-      <c r="B7" s="17"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="34" t="s">
+    <row r="7" spans="1:19" ht="15.6">
+      <c r="A7" s="16"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="17"/>
+      <c r="G7" s="46"/>
+      <c r="H7" s="25" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" ht="15.6">
+      <c r="A8" s="16"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="26" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" ht="15.6">
+      <c r="A9" s="16"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="26" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" ht="15.6">
+      <c r="A10" s="16"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="26" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" ht="15.6">
+      <c r="A11" s="16"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="26" t="s">
         <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" ht="15.75">
-      <c r="A8" s="20"/>
-      <c r="B8" s="17"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="35" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" ht="15.75">
-      <c r="A9" s="20"/>
-      <c r="B9" s="17"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="35" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" ht="15.75">
-      <c r="A10" s="20"/>
-      <c r="B10" s="17"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="35" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" ht="15.75">
-      <c r="A11" s="20"/>
-      <c r="B11" s="17"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="35" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="21" ht="22.5" customHeight="1"/>
@@ -1935,172 +1759,174 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:K71"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:H4"/>
+      <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="4.5703125" customWidth="1"/>
-    <col min="2" max="2" width="44.42578125" customWidth="1"/>
-    <col min="3" max="3" width="29.7109375" customWidth="1"/>
-    <col min="4" max="6" width="8.42578125" customWidth="1"/>
-    <col min="7" max="7" width="43.42578125" customWidth="1"/>
-    <col min="8" max="8" width="35.28515625" customWidth="1"/>
+    <col min="1" max="1" width="4.5546875" customWidth="1"/>
+    <col min="2" max="2" width="44.44140625" customWidth="1"/>
+    <col min="3" max="3" width="31.5546875" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" customWidth="1"/>
+    <col min="5" max="5" width="9.5546875" customWidth="1"/>
+    <col min="6" max="6" width="10" customWidth="1"/>
+    <col min="7" max="7" width="43.44140625" customWidth="1"/>
+    <col min="8" max="8" width="37.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="6" customFormat="1" ht="18.75">
-      <c r="A1" s="36" t="s">
+    <row r="1" spans="1:8" s="6" customFormat="1" ht="18">
+      <c r="A1" s="42" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="6" customFormat="1" ht="18">
+      <c r="A2" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+    </row>
+    <row r="3" spans="1:8" s="6" customFormat="1" ht="23.25" customHeight="1">
+      <c r="A3" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+    </row>
+    <row r="4" spans="1:8" s="6" customFormat="1" ht="22.8">
+      <c r="A4" s="48" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="49"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="49"/>
+      <c r="H4" s="50"/>
+    </row>
+    <row r="5" spans="1:8" s="7" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A5" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="H5" s="36" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" s="7" customFormat="1" ht="42.75" customHeight="1">
+      <c r="A6" s="36"/>
+      <c r="B6" s="37"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" s="6" customFormat="1" ht="18.75">
-      <c r="A2" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-    </row>
-    <row r="3" spans="1:8" s="6" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A3" s="38" t="s">
+      <c r="G6" s="36"/>
+      <c r="H6" s="36"/>
+    </row>
+    <row r="7" spans="1:8" s="6" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A7" s="16"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="47" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" s="6" customFormat="1" ht="15.6">
+      <c r="A8" s="16"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="47" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" s="6" customFormat="1" ht="15.6">
+      <c r="A9" s="16"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="38"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
-    </row>
-    <row r="4" spans="1:8" s="6" customFormat="1" ht="23.25" thickBot="1">
-      <c r="A4" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="B4" s="39"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
-    </row>
-    <row r="5" spans="1:8" s="7" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A5" s="46" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="48" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="52" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="53"/>
-      <c r="F5" s="53"/>
-      <c r="G5" s="50" t="s">
-        <v>7</v>
-      </c>
-      <c r="H5" s="54" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" s="7" customFormat="1" ht="42.75" customHeight="1">
-      <c r="A6" s="47"/>
-      <c r="B6" s="49"/>
-      <c r="C6" s="51"/>
-      <c r="D6" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G6" s="51"/>
-      <c r="H6" s="55"/>
-    </row>
-    <row r="7" spans="1:8" s="6" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A7" s="4"/>
-      <c r="B7" s="17"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="24" t="s">
+    </row>
+    <row r="10" spans="1:8" s="6" customFormat="1" ht="15.6">
+      <c r="A10" s="16"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="47" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" s="6" customFormat="1" ht="15.6">
+      <c r="A11" s="16"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="47" t="s">
         <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" s="6" customFormat="1" ht="15.75">
-      <c r="A8" s="4"/>
-      <c r="B8" s="17"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="25" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" s="6" customFormat="1" ht="15.75">
-      <c r="A9" s="4"/>
-      <c r="B9" s="17"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="25" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" s="6" customFormat="1" ht="15.75">
-      <c r="A10" s="4"/>
-      <c r="B10" s="17"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="25" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" s="6" customFormat="1" ht="15.75">
-      <c r="A11" s="4"/>
-      <c r="B11" s="17"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="25" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:8" s="6" customFormat="1">
@@ -2373,16 +2199,16 @@
       <c r="G38"/>
       <c r="H38"/>
     </row>
-    <row r="40" spans="1:9" ht="15">
-      <c r="I40" s="11"/>
-    </row>
-    <row r="70" spans="9:11" ht="15">
-      <c r="I70" s="11"/>
-      <c r="K70" s="28"/>
-    </row>
-    <row r="71" spans="9:11" ht="15">
-      <c r="I71" s="30"/>
-      <c r="J71" s="29"/>
+    <row r="40" spans="1:9" ht="13.8">
+      <c r="I40" s="9"/>
+    </row>
+    <row r="70" spans="9:11" ht="13.8">
+      <c r="I70" s="9"/>
+      <c r="K70" s="22"/>
+    </row>
+    <row r="71" spans="9:11" ht="13.8">
+      <c r="I71" s="24"/>
+      <c r="J71" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -2404,143 +2230,143 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:S11"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:H4"/>
+      <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="4.5703125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="45.85546875" style="5" customWidth="1"/>
-    <col min="3" max="3" width="30.85546875" style="5" customWidth="1"/>
-    <col min="4" max="4" width="8.42578125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="8.7109375" style="5" customWidth="1"/>
-    <col min="6" max="6" width="8.42578125" style="5" customWidth="1"/>
+    <col min="1" max="1" width="4.5546875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="45.88671875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="30.88671875" style="5" customWidth="1"/>
+    <col min="4" max="4" width="9.77734375" style="5" customWidth="1"/>
+    <col min="5" max="5" width="9.5546875" style="5" customWidth="1"/>
+    <col min="6" max="6" width="8.44140625" style="5" customWidth="1"/>
     <col min="7" max="7" width="46" style="5" customWidth="1"/>
-    <col min="8" max="8" width="38.42578125" style="5" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="5"/>
+    <col min="8" max="8" width="38.44140625" style="5" customWidth="1"/>
+    <col min="9" max="16384" width="9.109375" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="1" customFormat="1" ht="18.75">
-      <c r="A1" s="36" t="s">
+    <row r="1" spans="1:19" s="1" customFormat="1" ht="18">
+      <c r="A1" s="42" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="8" t="s">
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10"/>
+      <c r="R1" s="10"/>
+      <c r="S1" s="10"/>
+    </row>
+    <row r="2" spans="1:19" s="1" customFormat="1" ht="18">
+      <c r="A2" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14"/>
-      <c r="O1" s="14"/>
-      <c r="P1" s="14"/>
-      <c r="Q1" s="14"/>
-      <c r="R1" s="14"/>
-      <c r="S1" s="14"/>
-    </row>
-    <row r="2" spans="1:19" s="1" customFormat="1" ht="18.75">
-      <c r="A2" s="36" t="s">
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="10"/>
+      <c r="Q2" s="10"/>
+      <c r="R2" s="10"/>
+      <c r="S2" s="10"/>
+    </row>
+    <row r="3" spans="1:19" s="1" customFormat="1" ht="30">
+      <c r="A3" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="10"/>
+      <c r="R3" s="10"/>
+      <c r="S3" s="10"/>
+    </row>
+    <row r="4" spans="1:19" s="1" customFormat="1" ht="22.8">
+      <c r="A4" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="10"/>
+      <c r="Q4" s="10"/>
+      <c r="R4" s="10"/>
+      <c r="S4" s="10"/>
+    </row>
+    <row r="5" spans="1:19" s="3" customFormat="1" ht="15.6">
+      <c r="A5" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="14"/>
-      <c r="N2" s="14"/>
-      <c r="O2" s="14"/>
-      <c r="P2" s="14"/>
-      <c r="Q2" s="14"/>
-      <c r="R2" s="14"/>
-      <c r="S2" s="14"/>
-    </row>
-    <row r="3" spans="1:19" s="1" customFormat="1" ht="30">
-      <c r="A3" s="38" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="38"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
-      <c r="M3" s="14"/>
-      <c r="N3" s="14"/>
-      <c r="O3" s="14"/>
-      <c r="P3" s="14"/>
-      <c r="Q3" s="14"/>
-      <c r="R3" s="14"/>
-      <c r="S3" s="14"/>
-    </row>
-    <row r="4" spans="1:19" s="1" customFormat="1" ht="23.25" thickBot="1">
-      <c r="A4" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="B4" s="39"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="14"/>
-      <c r="O4" s="14"/>
-      <c r="P4" s="14"/>
-      <c r="Q4" s="14"/>
-      <c r="R4" s="14"/>
-      <c r="S4" s="14"/>
-    </row>
-    <row r="5" spans="1:19" s="3" customFormat="1" ht="15.75">
-      <c r="A5" s="50" t="s">
+      <c r="B5" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="56" t="s">
+      <c r="C5" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="50" t="s">
+      <c r="D5" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="52" t="s">
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="53"/>
-      <c r="F5" s="53"/>
-      <c r="G5" s="50" t="s">
+      <c r="H5" s="36" t="s">
         <v>7</v>
-      </c>
-      <c r="H5" s="50" t="s">
-        <v>8</v>
       </c>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
@@ -2554,21 +2380,21 @@
       <c r="R5" s="2"/>
       <c r="S5" s="2"/>
     </row>
-    <row r="6" spans="1:19" s="3" customFormat="1" ht="30">
-      <c r="A6" s="51"/>
-      <c r="B6" s="57"/>
-      <c r="C6" s="51"/>
+    <row r="6" spans="1:19" s="3" customFormat="1" ht="31.2">
+      <c r="A6" s="36"/>
+      <c r="B6" s="37"/>
+      <c r="C6" s="36"/>
       <c r="D6" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="F6" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" s="51"/>
-      <c r="H6" s="51"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="36"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
@@ -2581,64 +2407,64 @@
       <c r="R6" s="2"/>
       <c r="S6" s="2"/>
     </row>
-    <row r="7" spans="1:19" ht="15.75">
-      <c r="A7" s="4"/>
-      <c r="B7" s="26"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="24" t="s">
+    <row r="7" spans="1:19" ht="15.6">
+      <c r="A7" s="16"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="47" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" ht="15.6">
+      <c r="A8" s="16"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="47" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" ht="15.6">
+      <c r="A9" s="16"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="47" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" ht="15.6">
+      <c r="A10" s="16"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="47" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" ht="15.6">
+      <c r="A11" s="16"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="47" t="s">
         <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" ht="15.75">
-      <c r="A8" s="4"/>
-      <c r="B8" s="26"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="23"/>
-      <c r="H8" s="25" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" ht="15.75">
-      <c r="A9" s="4"/>
-      <c r="B9" s="26"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="23"/>
-      <c r="H9" s="25" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" ht="15.75">
-      <c r="A10" s="4"/>
-      <c r="B10" s="26"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="23"/>
-      <c r="H10" s="25" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" ht="15.75">
-      <c r="A11" s="4"/>
-      <c r="B11" s="26"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="23"/>
-      <c r="H11" s="25" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -2661,172 +2487,174 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:H95"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:H4"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="4.5703125" customWidth="1"/>
-    <col min="2" max="2" width="44.42578125" customWidth="1"/>
-    <col min="3" max="3" width="29.7109375" customWidth="1"/>
-    <col min="4" max="6" width="8.42578125" customWidth="1"/>
-    <col min="7" max="7" width="43.42578125" customWidth="1"/>
-    <col min="8" max="8" width="35.28515625" customWidth="1"/>
+    <col min="1" max="1" width="4.5546875" customWidth="1"/>
+    <col min="2" max="2" width="44.44140625" customWidth="1"/>
+    <col min="3" max="3" width="30.88671875" customWidth="1"/>
+    <col min="4" max="4" width="10.44140625" customWidth="1"/>
+    <col min="5" max="5" width="9.21875" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" customWidth="1"/>
+    <col min="7" max="7" width="43.44140625" customWidth="1"/>
+    <col min="8" max="8" width="37.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="6" customFormat="1" ht="18.75">
-      <c r="A1" s="36" t="s">
+    <row r="1" spans="1:8" s="6" customFormat="1" ht="18">
+      <c r="A1" s="42" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="6" customFormat="1" ht="18">
+      <c r="A2" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+    </row>
+    <row r="3" spans="1:8" s="6" customFormat="1" ht="23.25" customHeight="1">
+      <c r="A3" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+    </row>
+    <row r="4" spans="1:8" s="6" customFormat="1" ht="22.8">
+      <c r="A4" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+    </row>
+    <row r="5" spans="1:8" s="7" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A5" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="H5" s="36" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" s="7" customFormat="1" ht="42.75" customHeight="1">
+      <c r="A6" s="36"/>
+      <c r="B6" s="37"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" s="6" customFormat="1" ht="18.75">
-      <c r="A2" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-    </row>
-    <row r="3" spans="1:8" s="6" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A3" s="38" t="s">
+      <c r="G6" s="36"/>
+      <c r="H6" s="36"/>
+    </row>
+    <row r="7" spans="1:8" s="6" customFormat="1" ht="15.6">
+      <c r="A7" s="16"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="47" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" s="6" customFormat="1" ht="15.6">
+      <c r="A8" s="16"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="47" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" s="6" customFormat="1" ht="15.6">
+      <c r="A9" s="16"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="38"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
-    </row>
-    <row r="4" spans="1:8" s="6" customFormat="1" ht="23.25" thickBot="1">
-      <c r="A4" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="B4" s="39"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
-    </row>
-    <row r="5" spans="1:8" s="7" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A5" s="46" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="48" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="52" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="53"/>
-      <c r="F5" s="53"/>
-      <c r="G5" s="50" t="s">
-        <v>7</v>
-      </c>
-      <c r="H5" s="54" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" s="7" customFormat="1" ht="42.75" customHeight="1">
-      <c r="A6" s="47"/>
-      <c r="B6" s="49"/>
-      <c r="C6" s="51"/>
-      <c r="D6" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G6" s="51"/>
-      <c r="H6" s="55"/>
-    </row>
-    <row r="7" spans="1:8" s="6" customFormat="1" ht="15.75">
-      <c r="A7" s="4"/>
-      <c r="B7" s="26"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="24" t="s">
+    </row>
+    <row r="10" spans="1:8" s="6" customFormat="1" ht="15.6">
+      <c r="A10" s="16"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="47" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" s="6" customFormat="1" ht="15.6">
+      <c r="A11" s="16"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="47" t="s">
         <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" s="6" customFormat="1" ht="15.75">
-      <c r="A8" s="4"/>
-      <c r="B8" s="26"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="23"/>
-      <c r="H8" s="25" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" s="6" customFormat="1" ht="15.75">
-      <c r="A9" s="4"/>
-      <c r="B9" s="26"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="23"/>
-      <c r="H9" s="25" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" s="6" customFormat="1" ht="15.75">
-      <c r="A10" s="4"/>
-      <c r="B10" s="17"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="23"/>
-      <c r="H10" s="25" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" s="6" customFormat="1" ht="15.75">
-      <c r="A11" s="4"/>
-      <c r="B11" s="26"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="23"/>
-      <c r="H11" s="25" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:8" s="6" customFormat="1">
@@ -3170,7 +2998,7 @@
     </row>
     <row r="95" spans="3:3">
       <c r="C95" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -3193,143 +3021,142 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:S22"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:H4"/>
+      <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="4.5703125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="45.85546875" style="5" customWidth="1"/>
-    <col min="3" max="3" width="29.7109375" style="5" customWidth="1"/>
-    <col min="4" max="4" width="8.42578125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="8.7109375" style="5" customWidth="1"/>
-    <col min="6" max="6" width="8.42578125" style="5" customWidth="1"/>
+    <col min="1" max="1" width="4.5546875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="45.88671875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="32.5546875" style="5" customWidth="1"/>
+    <col min="4" max="4" width="10.21875" style="5" customWidth="1"/>
+    <col min="5" max="6" width="9.21875" style="5" customWidth="1"/>
     <col min="7" max="7" width="46" style="5" customWidth="1"/>
-    <col min="8" max="8" width="38.42578125" style="5" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="5"/>
+    <col min="8" max="8" width="38.44140625" style="5" customWidth="1"/>
+    <col min="9" max="16384" width="9.109375" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="1" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A1" s="36" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
+      <c r="A1" s="42" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
       <c r="H1" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
+      <c r="O1" s="21"/>
+      <c r="P1" s="21"/>
+      <c r="Q1" s="21"/>
+      <c r="R1" s="21"/>
+      <c r="S1" s="21"/>
+    </row>
+    <row r="2" spans="1:19" s="1" customFormat="1" ht="18">
+      <c r="A2" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="21"/>
+      <c r="O2" s="21"/>
+      <c r="P2" s="21"/>
+      <c r="Q2" s="21"/>
+      <c r="R2" s="21"/>
+      <c r="S2" s="21"/>
+    </row>
+    <row r="3" spans="1:19" s="1" customFormat="1" ht="23.25" customHeight="1">
+      <c r="A3" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="21"/>
+      <c r="N3" s="21"/>
+      <c r="O3" s="21"/>
+      <c r="P3" s="21"/>
+      <c r="Q3" s="21"/>
+      <c r="R3" s="21"/>
+      <c r="S3" s="21"/>
+    </row>
+    <row r="4" spans="1:19" s="1" customFormat="1" ht="21" customHeight="1">
+      <c r="A4" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27"/>
-      <c r="N1" s="27"/>
-      <c r="O1" s="27"/>
-      <c r="P1" s="27"/>
-      <c r="Q1" s="27"/>
-      <c r="R1" s="27"/>
-      <c r="S1" s="27"/>
-    </row>
-    <row r="2" spans="1:19" s="1" customFormat="1" ht="18.75">
-      <c r="A2" s="36" t="s">
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="21"/>
+      <c r="N4" s="21"/>
+      <c r="O4" s="21"/>
+      <c r="P4" s="21"/>
+      <c r="Q4" s="21"/>
+      <c r="R4" s="21"/>
+      <c r="S4" s="21"/>
+    </row>
+    <row r="5" spans="1:19" s="3" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A5" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="27"/>
-      <c r="M2" s="27"/>
-      <c r="N2" s="27"/>
-      <c r="O2" s="27"/>
-      <c r="P2" s="27"/>
-      <c r="Q2" s="27"/>
-      <c r="R2" s="27"/>
-      <c r="S2" s="27"/>
-    </row>
-    <row r="3" spans="1:19" s="1" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A3" s="38" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="38"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="27"/>
-      <c r="K3" s="27"/>
-      <c r="L3" s="27"/>
-      <c r="M3" s="27"/>
-      <c r="N3" s="27"/>
-      <c r="O3" s="27"/>
-      <c r="P3" s="27"/>
-      <c r="Q3" s="27"/>
-      <c r="R3" s="27"/>
-      <c r="S3" s="27"/>
-    </row>
-    <row r="4" spans="1:19" s="1" customFormat="1" ht="21" customHeight="1" thickBot="1">
-      <c r="A4" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="B4" s="39"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="27"/>
-      <c r="J4" s="27"/>
-      <c r="K4" s="27"/>
-      <c r="L4" s="27"/>
-      <c r="M4" s="27"/>
-      <c r="N4" s="27"/>
-      <c r="O4" s="27"/>
-      <c r="P4" s="27"/>
-      <c r="Q4" s="27"/>
-      <c r="R4" s="27"/>
-      <c r="S4" s="27"/>
-    </row>
-    <row r="5" spans="1:19" s="3" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A5" s="40" t="s">
+      <c r="B5" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="42" t="s">
+      <c r="C5" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="40" t="s">
+      <c r="D5" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="44" t="s">
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="45"/>
-      <c r="F5" s="45"/>
-      <c r="G5" s="40" t="s">
+      <c r="H5" s="36" t="s">
         <v>7</v>
-      </c>
-      <c r="H5" s="40" t="s">
-        <v>8</v>
       </c>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
@@ -3344,20 +3171,20 @@
       <c r="S5" s="2"/>
     </row>
     <row r="6" spans="1:19" s="3" customFormat="1" ht="33" customHeight="1">
-      <c r="A6" s="41"/>
-      <c r="B6" s="43"/>
-      <c r="C6" s="41"/>
-      <c r="D6" s="31" t="s">
+      <c r="A6" s="36"/>
+      <c r="B6" s="37"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="32" t="s">
+      <c r="F6" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" s="41"/>
-      <c r="H6" s="41"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="36"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
@@ -3370,64 +3197,64 @@
       <c r="R6" s="2"/>
       <c r="S6" s="2"/>
     </row>
-    <row r="7" spans="1:19" ht="15.75">
-      <c r="A7" s="20"/>
-      <c r="B7" s="17"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="34" t="s">
+    <row r="7" spans="1:19" ht="15.6">
+      <c r="A7" s="16"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="47" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" ht="15.6">
+      <c r="A8" s="16"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="47" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" ht="15.6">
+      <c r="A9" s="16"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="47" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" ht="15.6">
+      <c r="A10" s="16"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="47" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" ht="15.6">
+      <c r="A11" s="16"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="47" t="s">
         <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" ht="15.75">
-      <c r="A8" s="20"/>
-      <c r="B8" s="17"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="35" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" ht="15.75">
-      <c r="A9" s="20"/>
-      <c r="B9" s="17"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="35" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" ht="15.75">
-      <c r="A10" s="20"/>
-      <c r="B10" s="17"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="35" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" ht="15.75">
-      <c r="A11" s="20"/>
-      <c r="B11" s="17"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="35" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="21" ht="22.5" customHeight="1"/>
@@ -3452,172 +3279,173 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:K73"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:H4"/>
+      <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="4.5703125" customWidth="1"/>
-    <col min="2" max="2" width="44.42578125" customWidth="1"/>
-    <col min="3" max="3" width="29.7109375" customWidth="1"/>
-    <col min="4" max="6" width="8.42578125" customWidth="1"/>
-    <col min="7" max="7" width="43.42578125" customWidth="1"/>
-    <col min="8" max="8" width="35.28515625" customWidth="1"/>
+    <col min="1" max="1" width="4.5546875" customWidth="1"/>
+    <col min="2" max="2" width="44.44140625" customWidth="1"/>
+    <col min="3" max="3" width="31.77734375" customWidth="1"/>
+    <col min="4" max="5" width="9.6640625" customWidth="1"/>
+    <col min="6" max="6" width="9.88671875" customWidth="1"/>
+    <col min="7" max="7" width="43.44140625" customWidth="1"/>
+    <col min="8" max="8" width="37.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="6" customFormat="1" ht="18.75">
-      <c r="A1" s="36" t="s">
+    <row r="1" spans="1:8" s="6" customFormat="1" ht="18">
+      <c r="A1" s="42" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="6" customFormat="1" ht="18">
+      <c r="A2" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+    </row>
+    <row r="3" spans="1:8" s="6" customFormat="1" ht="23.25" customHeight="1">
+      <c r="A3" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+    </row>
+    <row r="4" spans="1:8" s="6" customFormat="1" ht="22.8">
+      <c r="A4" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+    </row>
+    <row r="5" spans="1:8" s="28" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A5" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="H5" s="36" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" s="28" customFormat="1" ht="42.75" customHeight="1">
+      <c r="A6" s="36"/>
+      <c r="B6" s="37"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" s="6" customFormat="1" ht="18.75">
-      <c r="A2" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-    </row>
-    <row r="3" spans="1:8" s="6" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A3" s="38" t="s">
+      <c r="G6" s="36"/>
+      <c r="H6" s="36"/>
+    </row>
+    <row r="7" spans="1:8" s="6" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A7" s="16"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="47" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" s="6" customFormat="1" ht="15.6">
+      <c r="A8" s="16"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="47" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" s="6" customFormat="1" ht="15.6">
+      <c r="A9" s="16"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="38"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
-    </row>
-    <row r="4" spans="1:8" s="6" customFormat="1" ht="23.25" thickBot="1">
-      <c r="A4" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="B4" s="39"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
-    </row>
-    <row r="5" spans="1:8" s="7" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A5" s="46" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="48" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="52" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="53"/>
-      <c r="F5" s="53"/>
-      <c r="G5" s="50" t="s">
-        <v>7</v>
-      </c>
-      <c r="H5" s="54" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" s="7" customFormat="1" ht="42.75" customHeight="1">
-      <c r="A6" s="47"/>
-      <c r="B6" s="49"/>
-      <c r="C6" s="51"/>
-      <c r="D6" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G6" s="51"/>
-      <c r="H6" s="55"/>
-    </row>
-    <row r="7" spans="1:8" s="6" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A7" s="4"/>
-      <c r="B7" s="17"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="24" t="s">
+    </row>
+    <row r="10" spans="1:8" s="6" customFormat="1" ht="15.6">
+      <c r="A10" s="16"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="47" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" s="6" customFormat="1" ht="15.6">
+      <c r="A11" s="16"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="47" t="s">
         <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" s="6" customFormat="1" ht="15.75">
-      <c r="A8" s="4"/>
-      <c r="B8" s="17"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="25" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" s="6" customFormat="1" ht="15.75">
-      <c r="A9" s="4"/>
-      <c r="B9" s="17"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="25" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" s="6" customFormat="1" ht="15.75">
-      <c r="A10" s="4"/>
-      <c r="B10" s="17"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="25" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" s="6" customFormat="1" ht="15.75">
-      <c r="A11" s="4"/>
-      <c r="B11" s="17"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="25" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:8" s="6" customFormat="1"/>
@@ -3657,7 +3485,7 @@
       <c r="G39" s="6"/>
       <c r="H39" s="6"/>
     </row>
-    <row r="40" spans="1:9" ht="15">
+    <row r="40" spans="1:9" ht="13.8">
       <c r="A40" s="6"/>
       <c r="B40" s="6"/>
       <c r="C40" s="6"/>
@@ -3666,7 +3494,7 @@
       <c r="F40" s="6"/>
       <c r="G40" s="6"/>
       <c r="H40" s="6"/>
-      <c r="I40" s="11"/>
+      <c r="I40" s="9"/>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" s="6"/>
@@ -3958,7 +3786,7 @@
       <c r="G69" s="6"/>
       <c r="H69" s="6"/>
     </row>
-    <row r="70" spans="1:11" ht="15">
+    <row r="70" spans="1:11" ht="13.8">
       <c r="A70" s="6"/>
       <c r="B70" s="6"/>
       <c r="C70" s="6"/>
@@ -3967,10 +3795,10 @@
       <c r="F70" s="6"/>
       <c r="G70" s="6"/>
       <c r="H70" s="6"/>
-      <c r="I70" s="11"/>
-      <c r="K70" s="28"/>
-    </row>
-    <row r="71" spans="1:11" ht="15">
+      <c r="I70" s="9"/>
+      <c r="K70" s="22"/>
+    </row>
+    <row r="71" spans="1:11" ht="13.8">
       <c r="A71" s="6"/>
       <c r="B71" s="6"/>
       <c r="C71" s="6"/>
@@ -3979,8 +3807,8 @@
       <c r="F71" s="6"/>
       <c r="G71" s="6"/>
       <c r="H71" s="6"/>
-      <c r="I71" s="30"/>
-      <c r="J71" s="29"/>
+      <c r="I71" s="24"/>
+      <c r="J71" s="23"/>
     </row>
     <row r="72" spans="1:11">
       <c r="A72" s="6"/>
